--- a/PMD/Output/salaryApi.xlsx
+++ b/PMD/Output/salaryApi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>SR NUMBER</t>
   </si>
@@ -40,13 +40,16 @@
     <t>ENVIRONMENT</t>
   </si>
   <si>
+    <t>VERSION</t>
+  </si>
+  <si>
     <t>26424</t>
   </si>
   <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>2513</t>
+    <t>3784</t>
   </si>
   <si>
     <t>200</t>
@@ -55,16 +58,22 @@
     <t/>
   </si>
   <si>
+    <t>klif</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
     <t>30730</t>
   </si>
   <si>
-    <t>13468</t>
+    <t>8431</t>
   </si>
   <si>
     <t>33793</t>
   </si>
   <si>
-    <t>4782</t>
+    <t>7354</t>
   </si>
   <si>
     <t>59179</t>
@@ -73,7 +82,7 @@
     <t>FALSE</t>
   </si>
   <si>
-    <t>4005</t>
+    <t>8288</t>
   </si>
   <si>
     <t xml:space="preserve">0100
@@ -87,37 +96,37 @@
     <t>59260</t>
   </si>
   <si>
-    <t>2048</t>
+    <t>2866</t>
   </si>
   <si>
     <t>60393</t>
   </si>
   <si>
-    <t>2160</t>
+    <t>2979</t>
   </si>
   <si>
     <t>112142</t>
   </si>
   <si>
-    <t>2046</t>
+    <t>2926</t>
   </si>
   <si>
     <t>112174</t>
   </si>
   <si>
-    <t>2169</t>
+    <t>3197</t>
   </si>
   <si>
     <t>112396</t>
   </si>
   <si>
-    <t>2099</t>
+    <t>2919</t>
   </si>
   <si>
     <t>114667</t>
   </si>
   <si>
-    <t>2181</t>
+    <t>3021</t>
   </si>
   <si>
     <t xml:space="preserve">0364
@@ -135,61 +144,61 @@
     <t>129877</t>
   </si>
   <si>
-    <t>2162</t>
+    <t>3127</t>
   </si>
   <si>
     <t>174711</t>
   </si>
   <si>
-    <t>2108</t>
+    <t>3071</t>
   </si>
   <si>
     <t>179106</t>
   </si>
   <si>
-    <t>2174</t>
+    <t>3085</t>
   </si>
   <si>
     <t>181411</t>
   </si>
   <si>
-    <t>1855</t>
+    <t>3003</t>
   </si>
   <si>
     <t>189384</t>
   </si>
   <si>
-    <t>1891</t>
+    <t>2967</t>
   </si>
   <si>
     <t>191829</t>
   </si>
   <si>
-    <t>2273</t>
+    <t>3816</t>
   </si>
   <si>
     <t>210490</t>
   </si>
   <si>
-    <t>1951</t>
+    <t>2275</t>
   </si>
   <si>
     <t>233334</t>
   </si>
   <si>
-    <t>1857</t>
+    <t>2059</t>
   </si>
   <si>
     <t>236829</t>
   </si>
   <si>
-    <t>1844</t>
+    <t>1994</t>
   </si>
   <si>
     <t>257356</t>
   </si>
   <si>
-    <t>1928</t>
+    <t>1917</t>
   </si>
 </sst>
 </file>
@@ -579,7 +588,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
   <sheetPr/>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -593,6 +602,7 @@
     <col min="11" max="11" width="35" customWidth="1"/>
     <col min="13" max="13" width="35" customWidth="1"/>
     <col min="15" max="15" width="35" customWidth="1"/>
+    <col min="17" max="17" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="true" s="1">
@@ -620,31 +630,37 @@
       <c r="O1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="Q1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -652,25 +668,28 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O3" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -678,25 +697,28 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O4" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -704,25 +726,28 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O5" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -730,25 +755,28 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O6" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -756,25 +784,28 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O7" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -782,25 +813,28 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O8" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -808,25 +842,28 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O9" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -834,25 +871,28 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O10" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -860,25 +900,28 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O11" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -886,25 +929,28 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O12" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -912,25 +958,28 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O13" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -938,25 +987,28 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O14" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -964,25 +1016,28 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O15" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -990,25 +1045,28 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O16" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1016,25 +1074,28 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O17" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1042,25 +1103,28 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O18" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1068,25 +1132,28 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O19" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -1094,25 +1161,28 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O20" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -1120,25 +1190,28 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O21" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PMD/Output/salaryApi.xlsx
+++ b/PMD/Output/salaryApi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>SR NUMBER</t>
   </si>
@@ -49,7 +49,7 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>3784</t>
+    <t>2376</t>
   </si>
   <si>
     <t>200</t>
@@ -58,7 +58,7 @@
     <t/>
   </si>
   <si>
-    <t>klif</t>
+    <t>arc</t>
   </si>
   <si>
     <t>v1</t>
@@ -67,138 +67,112 @@
     <t>30730</t>
   </si>
   <si>
-    <t>8431</t>
+    <t>9915</t>
   </si>
   <si>
     <t>33793</t>
   </si>
   <si>
-    <t>7354</t>
-  </si>
-  <si>
-    <t>59179</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>8288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0100
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The site’s salary tax rate must be higher than 0.
-</t>
+    <t>3713</t>
+  </si>
+  <si>
+    <t>102891</t>
+  </si>
+  <si>
+    <t>1935</t>
   </si>
   <si>
     <t>59260</t>
   </si>
   <si>
-    <t>2866</t>
+    <t>1833</t>
   </si>
   <si>
     <t>60393</t>
   </si>
   <si>
-    <t>2979</t>
+    <t>2030</t>
   </si>
   <si>
     <t>112142</t>
   </si>
   <si>
-    <t>2926</t>
+    <t>2035</t>
   </si>
   <si>
     <t>112174</t>
   </si>
   <si>
-    <t>3197</t>
+    <t>1981</t>
   </si>
   <si>
     <t>112396</t>
   </si>
   <si>
-    <t>2919</t>
-  </si>
-  <si>
-    <t>114667</t>
-  </si>
-  <si>
-    <t>3021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0364
-0360
-0362
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salary Start date must be after the last account closing.
-The salary start date must be between the opening access date and the closure access date.
-Cannot find a payroll employment rate on the salary start date.
-</t>
+    <t>2163</t>
+  </si>
+  <si>
+    <t>176447</t>
   </si>
   <si>
     <t>129877</t>
   </si>
   <si>
-    <t>3127</t>
+    <t>1965</t>
   </si>
   <si>
     <t>174711</t>
   </si>
   <si>
-    <t>3071</t>
+    <t>1948</t>
   </si>
   <si>
     <t>179106</t>
   </si>
   <si>
-    <t>3085</t>
-  </si>
-  <si>
-    <t>181411</t>
-  </si>
-  <si>
-    <t>3003</t>
+    <t>2046</t>
+  </si>
+  <si>
+    <t>135231</t>
+  </si>
+  <si>
+    <t>1938</t>
   </si>
   <si>
     <t>189384</t>
   </si>
   <si>
-    <t>2967</t>
+    <t>1984</t>
   </si>
   <si>
     <t>191829</t>
   </si>
   <si>
-    <t>3816</t>
+    <t>1899</t>
   </si>
   <si>
     <t>210490</t>
   </si>
   <si>
-    <t>2275</t>
+    <t>1915</t>
   </si>
   <si>
     <t>233334</t>
   </si>
   <si>
-    <t>2059</t>
+    <t>2065</t>
   </si>
   <si>
     <t>236829</t>
   </si>
   <si>
-    <t>1994</t>
+    <t>2109</t>
   </si>
   <si>
     <t>257356</t>
   </si>
   <si>
-    <t>1917</t>
+    <t>2088</t>
   </si>
 </sst>
 </file>
@@ -227,7 +201,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,11 +211,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
       </patternFill>
     </fill>
   </fills>
@@ -267,15 +236,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyFill="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="true" applyAlignment="true" applyProtection="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="true" applyFill="true" applyAlignment="true" applyProtection="true"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,20 +693,20 @@
       <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
       <c r="I5" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>24</v>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" t="s">
+        <v>13</v>
       </c>
       <c r="O5" t="s">
         <v>14</v>
@@ -755,13 +720,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -784,13 +749,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
@@ -813,13 +778,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -842,13 +807,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -871,13 +836,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
@@ -900,22 +865,22 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
         <v>21</v>
       </c>
-      <c r="G11" t="s">
-        <v>36</v>
-      </c>
       <c r="I11" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>38</v>
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" t="s">
+        <v>13</v>
       </c>
       <c r="O11" t="s">
         <v>14</v>
@@ -929,13 +894,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
@@ -958,13 +923,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
@@ -987,13 +952,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s">
         <v>12</v>
@@ -1016,22 +981,22 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>21</v>
+        <v>39</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I15" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>38</v>
+      <c r="K15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" t="s">
+        <v>13</v>
       </c>
       <c r="O15" t="s">
         <v>14</v>
@@ -1045,13 +1010,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I16" t="s">
         <v>12</v>
@@ -1074,13 +1039,13 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I17" t="s">
         <v>12</v>
@@ -1103,13 +1068,13 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
         <v>12</v>
@@ -1132,13 +1097,13 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
         <v>12</v>
@@ -1161,13 +1126,13 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I20" t="s">
         <v>12</v>
@@ -1190,13 +1155,13 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I21" t="s">
         <v>12</v>
